--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="540" windowWidth="7335" windowHeight="7620" activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" r:id="rId1"/>
-    <sheet name="mark" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t xml:space="preserve">2017/11/27 </t>
+    <t xml:space="preserve">2017/11/28 </t>
   </si>
   <si>
-    <t>*</t>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -28,20 +27,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt formatCode="dd\.mm\.yyyy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,17 +56,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -355,125 +353,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="n">
+        <v>80001111</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>10</v>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="n">
+        <v>80002222</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>96</v>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>80003333</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="print" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t xml:space="preserve">2017/11/28 </t>
+  </si>
+  <si>
+    <t>2017/11/28</t>
   </si>
   <si>
     <t>**</t>
@@ -26,9 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="dd\.mm\.yyyy;@" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -60,7 +62,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -358,10 +360,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -373,8 +375,8 @@
       <c r="A1" t="n">
         <v>80001111</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C1" t="n">
         <v>1</v>
@@ -390,7 +392,7 @@
       <c r="A2" t="n">
         <v>80002222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="n">
@@ -407,7 +409,7 @@
       <c r="A3" t="n">
         <v>80003333</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="n">
@@ -421,12 +423,183 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" t="n">
+        <v>80001234</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>80001258</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>80009999</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43067</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>80005555</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43067</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43067</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E8" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43067</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>43067</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t xml:space="preserve">2017/11/28 </t>
-  </si>
-  <si>
-    <t>2017/11/28</t>
+    <t>2017/11/30</t>
   </si>
   <si>
     <t>**</t>
@@ -360,10 +357,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -392,8 +389,8 @@
       <c r="A2" t="n">
         <v>80002222</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -409,8 +406,8 @@
       <c r="A3" t="n">
         <v>80003333</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="B3" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -426,8 +423,8 @@
       <c r="A4" t="n">
         <v>80001234</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+      <c r="B4" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -443,8 +440,8 @@
       <c r="A5" t="n">
         <v>80001258</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
+      <c r="B5" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -545,8 +542,8 @@
       <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -562,8 +559,8 @@
       <c r="A12" t="n">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B12" s="1" t="n">
+        <v>43067</v>
       </c>
       <c r="C12" t="n">
         <v>8</v>
@@ -576,8 +573,42 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="n">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>43069</v>
+      </c>
+      <c r="C13" t="n">
+        <v>898</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>80009632</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>123654</v>
+      </c>
+      <c r="E14" t="n">
+        <v>456326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +625,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>2017/11/30</t>
+  </si>
+  <si>
+    <t>2017/12/04</t>
   </si>
   <si>
     <t>**</t>
@@ -357,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -607,8 +610,25 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>1</v>
+      <c r="A15" t="n">
+        <v>80001234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="print" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2017" sheetId="1" r:id="rId1"/>
+    <sheet name="print" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>2017/11/30</t>
-  </si>
-  <si>
-    <t>2017/12/04</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>**</t>
   </si>
@@ -30,19 +24,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,16 +51,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -355,302 +349,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="n">
+      <c r="A1">
         <v>80001111</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>43067</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1">
         <v>23</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>80002222</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="n">
-        <v>80003333</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="n">
-        <v>80001234</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56</v>
-      </c>
-      <c r="E4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="n">
-        <v>80001258</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="n">
-        <v>80009999</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="n">
-        <v>80005555</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="n">
-        <v>89</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C8" t="n">
-        <v>89</v>
-      </c>
-      <c r="D8" t="n">
-        <v>89</v>
-      </c>
-      <c r="E8" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>43067</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="n">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43069</v>
-      </c>
-      <c r="C13" t="n">
-        <v>898</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89</v>
-      </c>
-      <c r="E13" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="n">
-        <v>80009632</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>123654</v>
-      </c>
-      <c r="E14" t="n">
-        <v>456326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="n">
-        <v>80001234</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -1,21 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2017" sheetId="1" r:id="rId1"/>
-    <sheet name="print" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="print" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>2017/12/06</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>80001235698</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>3454356</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>456123</t>
+  </si>
+  <si>
+    <t>45612345645</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>789789</t>
+  </si>
+  <si>
+    <t>80009999</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>234445</t>
+  </si>
   <si>
     <t>**</t>
   </si>
@@ -24,18 +93,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,17 +121,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -349,56 +418,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
+      <c r="A1" t="n">
         <v>80001111</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>43067</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="n">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>23</v>
       </c>
-      <c r="E1">
+      <c r="E1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>2017/12/06</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>234445</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>5896</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80001235</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>**</t>
@@ -423,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
@@ -605,7 +629,143 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -15,99 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>2017/12/06</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>80001235698</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>3454356</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>456123</t>
-  </si>
-  <si>
-    <t>45612345645</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>789789</t>
-  </si>
-  <si>
-    <t>80009999</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>234445</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>5896</t>
-  </si>
-  <si>
-    <t>2345</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>80001235</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>**</t>
@@ -447,10 +357,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -476,296 +386,195 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>80001111</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="n">
+        <v>246912</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>80001234</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>80001111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>80001234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78</v>
+      </c>
+      <c r="E6" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>80001234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>2017/12/06</t>
+  </si>
+  <si>
+    <t>2017/12/07</t>
   </si>
   <si>
     <t>**</t>
@@ -357,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD19"/>
@@ -573,8 +576,280 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="n">
+        <v>80001235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>89</v>
+      </c>
+      <c r="D13" t="n">
+        <v>789456</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1246443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="n">
+        <v>80001236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="n">
+        <v>80001236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="n">
+        <v>80001236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="n">
+        <v>80001236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60</v>
+      </c>
+      <c r="D18" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60</v>
+      </c>
+      <c r="D19" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60</v>
+      </c>
+      <c r="D20" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>60</v>
+      </c>
+      <c r="D21" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>60</v>
+      </c>
+      <c r="D22" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>60</v>
+      </c>
+      <c r="D23" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E23" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60</v>
+      </c>
+      <c r="D24" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>60</v>
+      </c>
+      <c r="D26" t="n">
+        <v>624963</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24302404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>60</v>
+      </c>
+      <c r="D27" t="n">
+        <v>628043</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24305484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>60</v>
+      </c>
+      <c r="D28" t="n">
+        <v>628043</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24305484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -420,7 +420,24 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="n">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>89</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -437,7 +437,41 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>

--- a/counter_ver.1.xlsx
+++ b/counter_ver.1.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="print" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2018" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>2017/12/07</t>
+  </si>
+  <si>
+    <t>2017/12/11</t>
   </si>
   <si>
     <t>**</t>
@@ -57,9 +60,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -357,15 +361,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="2" min="2" style="1" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="9.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="9.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -375,13 +381,13 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" s="2" t="n">
         <v>628043</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="2" t="n">
         <v>24305484</v>
       </c>
     </row>
@@ -392,13 +398,13 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -409,13 +415,13 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -426,13 +432,13 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>89</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>90</v>
       </c>
     </row>
@@ -443,13 +449,13 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -460,19 +466,104 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>1</v>
+      <c r="A7" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>628043</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>24305484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>80002130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>628043</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>24349298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="n">
+        <v>80002132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>628043</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>24305484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="n">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +581,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
